--- a/spreadsheet/macrofree/cost_checklist.es.xlsx
+++ b/spreadsheet/macrofree/cost_checklist.es.xlsx
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>Eliminar/Archivar</t>
+          <t>Eliminar/archivar</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
@@ -1194,12 +1194,12 @@
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>Eliminar/Archivar</t>
+          <t>Eliminar/archivar</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Considere la técnica de posponer y detener (posponer un servicio después de x días, detenerse después de 2x, eliminar/desasignar después de 3x)</t>
+          <t>Considere la técnica de repetición y detención (posponer un servicio después de x días, detenerse después de 2x, eliminar/desasignar después de 3x)</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>Eliminar/Archivar</t>
+          <t>Eliminar/archivar</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
@@ -1278,12 +1278,12 @@
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>Eliminar/Archivar</t>
+          <t>Eliminar/archivar</t>
         </is>
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Considere un buen equilibrio entre el almacenamiento de Site Recovery y la copia de seguridad para aplicaciones que no son de misión crítica</t>
+          <t>Considere un buen equilibrio entre el almacenamiento de recuperación del sitio y la copia de seguridad para aplicaciones que no son críticas</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Compruebe las oportunidades de gasto y ahorro entre las 40 áreas de trabajo de Log Analytics diferentes: use diferentes retenciones y recopilación de datos para áreas de trabajo que no sean de producción: cree un límite diario para el reconocimiento y el tamaño de los niveles: si establece un límite diario, además de crear una alerta cuando se alcance el límite, asegúrese de crear también una regla de alerta para recibir una notificación cuando se alcance algún porcentaje (90 %, por ejemplo). - Considere la posibilidad de transformar el espacio de trabajo si es posible - https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-transformations#workspace-transformation-dcr </t>
+          <t xml:space="preserve">Compruebe las oportunidades de gasto y ahorro entre las 40 áreas de trabajo de Log Analytics diferentes: use diferentes retenciones y recopilación de datos para áreas de trabajo que no sean de producción: cree un límite diario para el reconocimiento y el tamaño de los niveles: si establece un límite diario, además de crear una alerta cuando se alcance el límite, asegúrese de crear también una regla de alerta para que se le notifique cuando se alcance algún porcentaje (90 %, por ejemplo). - Considere la posibilidad de transformar el espacio de trabajo si es posible - https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-transformations#workspace-transformation-dcr </t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Aplicar una política de purga de registros y automatización (si es necesario, los registros se pueden mover al almacenamiento en frío)</t>
+          <t>Aplique una política de purga de registros y automatización (si es necesario, los registros se pueden mover al almacenamiento en frío)</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>Ejecutar libro de recursos huérfanos: eliminar o posponer elementos fantasma</t>
+          <t>Ejecutar el libro de recursos huérfanos: eliminar o posponer elementos fantasma</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>Apagado/Desasignación</t>
+          <t>Apagar/desasignar</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Comprueba que los discos son realmente necesarios, si no: borrar. Si son necesarios, busque niveles de almacenamiento más bajos o use una copia de seguridad:</t>
+          <t>Compruebe que los discos son realmente necesarios, si no: eliminar. Si son necesarios, busque niveles de almacenamiento más bajos o use una copia de seguridad:</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere la posibilidad de trasladar el almacenamiento no utilizado al nivel inferior, con una regla personalizada: https://learn.microsoft.com/azure/storage/blobs/lifecycle-management-policy-configure  </t>
+          <t xml:space="preserve">Considere la posibilidad de mover el almacenamiento no utilizado al nivel inferior, con reglas personalizadas: https://learn.microsoft.com/azure/storage/blobs/lifecycle-management-policy-configure  </t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>use etiquetas específicas para elementos temporales con formato 'eliminar por FECHA' y automatice la limpieza mensual</t>
+          <t>Utilice etiquetas específicas para los elementos temporales con el formato "eliminar por fecha" y automatice la limpieza mensual</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1633,7 +1633,7 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>Ajuste de DB/APP</t>
+          <t>Ajuste de DB/App</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
@@ -1764,12 +1764,12 @@
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>Modelado de la demanda</t>
+          <t>Conformación de la demanda</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>el uso de la conformación de la demanda en los servicios PaaS optimizará los costos y el rendimiento</t>
+          <t>El uso de la conformación de la demanda en los servicios PaaS optimizará los costos y el rendimiento</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">asegúrese de que Advisor esté configurado para el tamaño correcto de la máquina virtual </t>
+          <t xml:space="preserve">Asegúrese de que el asesor está configurado para el tamaño correcto de la máquina virtual </t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>considere la posibilidad de implementar scripts de IAC o canalizaciones de DevOps para que coincidan con el proceso de gobernanza de costos</t>
+          <t>Considere la posibilidad de implementar scripts de IaC o canalizaciones de DevOps para que coincidan con el proceso de gobernanza de costos</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Configurar alertas de costos para aplicaciones que tengan costos variables (idealmente para todas ellas)</t>
+          <t>Configurar alertas de costos para aplicaciones que tienen costos variables (idealmente para todas ellas)</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Ejecución del libro Recursos huérfanos</t>
+          <t>Ejecución del libro de recursos huérfanos</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Trate de establecer una línea de base de gasto mensual y un objetivo de ahorro aceptable con respecto a la línea de base (los nuevos servicios no se optimizarán en esta etapa)</t>
+          <t>Intente establecer una línea de base de gasto mensual y un objetivo de ahorro aceptable con respecto a la línea de base (los nuevos servicios no se optimizarán en esta etapa)</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Establezca una línea base de optimización de costos mediante una directiva que etiquete cada nuevo recurso como #NEW</t>
+          <t>Establezca una línea base de optimización de costos mediante una política que etiquete cada nuevo recurso como #NEW</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>En el análisis de costos: use la granularidad diaria, agrupada por nombre de servicio para analizar el gasto de los últimos 3 meses e identificar los 3 que más gastan.</t>
+          <t>En el análisis de costos, use la granularidad diaria, agrupada por nombre de servicio para analizar el gasto de los últimos 3 meses e identificar los 3 que más gastan.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2478,7 +2478,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>considere la posibilidad de automatizar las reservas para realizar un seguimiento de los cambios y reaccionar rápidamente a ellos</t>
+          <t>Considere la posibilidad de automatizar las reservas para realizar un seguimiento de los cambios y reaccionar rápidamente a ellos</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>consulte las licencias de Red Hat, si corresponde.</t>
+          <t>Consulte las licencias de Red Hat, si corresponde.</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Los planes de ahorro proporcionarán un 17 % en determinados planes de App Service</t>
+          <t>Los planes de ahorro proporcionarán un 17 % en determinados planes de servicio de aplicaciones</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2645,12 +2645,12 @@
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>planificación</t>
+          <t>Planificación</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>consolide familias de máquinas virtuales reservadas con la opción de flexibilidad (no más de 4-5 familias)</t>
+          <t>Consolide familias de máquinas virtuales reservadas con la opción de flexibilidad (no más de 4-5 familias)</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>Reservas/Planes de Ahorro</t>
+          <t>Reservas/planes de ahorro</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
@@ -2733,12 +2733,12 @@
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>Reservas/Planes de Ahorro</t>
+          <t>Reservas/planes de ahorro</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>planear planes de ahorro de Azure para todas las cargas de trabajo que son dinámicas y necesitan la máxima flexibilidad</t>
+          <t>Planeación de planes de ahorro de Azure para todas las cargas de trabajo que son dinámicas y necesitan la máxima flexibilidad</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2775,12 +2775,12 @@
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>Reservas/Planes de Ahorro</t>
+          <t>Reservas/planes de ahorro</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>planear las reservas de Azure para todas las cargas de trabajo que son menos dinámicas y que no cambiarán mucho</t>
+          <t>Planeación de reservas de Azure para todas las cargas de trabajo que son menos dinámicas y que no cambiarán mucho</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>solo se pueden reservar discos más grandes =&gt;1TiB -</t>
+          <t>Solo se pueden reservar discos más grandes =&gt; 1 TiB -</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -2857,12 +2857,12 @@
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>reservar máquinas virtuales con tamaños normalizados y racionalizados</t>
+          <t>Reservar máquinas virtuales con tamaños normalizados y racionalizados</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>después de la optimización del tamaño correcto</t>
+          <t>Después de la optimización del tamaño correcto</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Compruebe si corresponde y haga cumplir la política/cambio https://learn.microsoft.com/azure/azure-sql/azure-hybrid-benefit?view=azuresql&amp;tabs=azure-portalhttps://learn.microsoft.com/azure/cost-management-billing/scope-level/create-sql-license-assignments?source=recommendations</t>
+          <t>Compruebe si corresponde y aplique la política/cambio https://learn.microsoft.com/azure/azure-sql/azure-hybrid-benefit?view=azuresql&amp;tabs=azure-portalhttps://learn.microsoft.com/azure/cost-management-billing/scope-level/create-sql-license-assignments?source=recommendations</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>el descuento de la parte de licencia VM + (ahub+3YRI) es de alrededor del 70% de descuento</t>
+          <t>El descuento de la parte de la licencia VM + (ahub + 3YRI) es de alrededor del 70% de descuento</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t>seguimiento</t>
+          <t>Seguimiento</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
@@ -3024,7 +3024,7 @@
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>seguimiento</t>
+          <t>Seguimiento</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>planificar y aplicar una política de encendido/apagado para los servicios de producción, siempre que sea posible</t>
+          <t>Planifique y aplique una política de activación/desactivación para los servicios de producción, siempre que sea posible</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3112,7 +3112,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>planificar y aplicar una política ON-DEMAND con apagado automático para servicios que no sean de producción, siempre que sea posible</t>
+          <t>Planifique y aplique una política bajo demanda con apagado automático para servicios que no sean de producción, siempre que sea posible</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>considere la posibilidad de utilizar un VMSS para satisfacer la demanda en lugar de un tamaño plano</t>
+          <t>Considere la posibilidad de utilizar un VMSS para satisfacer la demanda en lugar de un tamaño fijo</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>use el escalador automático de AKS para que coincida con el uso de los clústeres (asegúrese de que los requisitos de los pods coincidan con el escalador)</t>
+          <t>Use el escalador automático de AKS para que coincida con el uso de los clústeres (asegúrese de que los requisitos de los pods coincidan con el escalador)</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>servicio PaaS de tamaño adecuado de acuerdo con el uso promedio y acomodar picos con escalado automático o manual</t>
+          <t>Servicio PaaS del tamaño adecuado de acuerdo con el uso promedio y adaptarse a los picos con escalado automático o manual</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Planificar la conformación de la demanda cuando corresponda</t>
+          <t>Planifique la configuración de la demanda cuando corresponda</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de implementar una lógica de reescalado del servicio dentro de la aplicación</t>
+          <t>Considere la posibilidad de implementar una lógica de reescalado de servicios dentro de la aplicación</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">considere la posibilidad de usar máquinas virtuales de acceso puntual con reserva siempre que sea posible, considere la terminación automática de clústeres https://learn.microsoft.com/azure/databricks/clusters/cluster-config-best-practices#automatic-termination </t>
+          <t>Considere la posibilidad de usar máquinas virtuales de acceso puntual con reserva siempre que sea posible. Considere la posibilidad de la terminación automática de clústeres.</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3418,14 +3418,10 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I63" s="15" t="inlineStr">
-        <is>
-          <t>https://andrewmatveychuk.com/how-to-audit-azure-hybrid-benefit-usage-with-azure-workbooks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/databricks/clusters/cluster-config-best-practices#automatic-termination</t>
+        </is>
+      </c>
+      <c r="I63" s="15" t="n"/>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
@@ -3497,7 +3493,7 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>functions -Almacenar datos en caché localmente</t>
+          <t>Funciones: almacenar datos en caché localmente</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3543,7 +3539,7 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>functions - Arranques en frío: utilice la funcionalidad 'Ejecutar desde el paquete'. De esta manera, el código se descarga como un solo archivo zip. Esto puede, por ejemplo, resultar en mejoras significativas con las funciones de Javascript, que tienen muchos módulos de nodos. Utilice herramientas específicas del lenguaje para reducir el tamaño del paquete, por ejemplo, aplicaciones Javascript que sacuden el árbol.</t>
+          <t>Funciones - Arranques en frío: utilice la funcionalidad 'Ejecutar desde el paquete'. De esta manera, el código se descarga como un único archivo zip. Esto puede, por ejemplo, resultar en mejoras significativas con las funciones de Javascript, que tienen muchos módulos de nodos. Utilice herramientas específicas del lenguaje para reducir el tamaño del paquete, por ejemplo, aplicaciones Javascript que sacuden el árbol.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3589,7 +3585,7 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Funciones -Mantenga sus funciones calientes</t>
+          <t>Funciones - Mantén tus funciones calientes</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3635,7 +3631,7 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>cuando se usa el escalado automático con diferentes funciones, es posible que haya uno que controle todo el escalado automático para todos los recursos: considere la posibilidad de moverlo a un plan de consumo independiente (y considere un plan superior para la CPU)</t>
+          <t>Al usar el escalado automático con diferentes funciones, es posible que haya uno que controle todo el escalado automático para todos los recursos: considere la posibilidad de moverlo a un plan de consumo independiente (y considere un plan superior para la CPU)</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3761,7 +3757,7 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Evalúe la topología de red con respecto a los costos de red y, cuando corresponda, reduzca los datos de salida y emparejamiento</t>
+          <t>Evalúe la topología de red en función de los costos de red y, cuando corresponda, reduzca los datos de salida y emparejamiento</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -3845,7 +3841,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Frontdoor: ruta a algo que no devuelve nadaConfigure una función, un proxy de función o agregue una ruta en la aplicación web que devuelva 200 (correcto) y no envíe contenido mínimo o nulo. La ventaja de esto es que podrá cerrar la sesión cuando se llame.</t>
+          <t>Frontdoor: ruta a algo que no devuelve nada. Configure una función, un proxy de función o agregue una ruta en la aplicación web que devuelva 200 (correctamente) y envíe contenido mínimo o nulo. La ventaja de esto es que podrá cerrar la sesión cuando se llame.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -3924,7 +3920,7 @@
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>sin servidor</t>
+          <t>Sin servidor</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
@@ -4013,7 +4009,7 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>compruebe los tamaños de disco en los que el tamaño no coincida con el nivel (es decir, un disco de 513 GiB pagará un P30 (1 TiB) y considere la posibilidad de cambiar el tamaño</t>
+          <t>Compruebe los tamaños de disco en los que el tamaño no coincida con el nivel (es decir, un disco de 513 GiB pagará un P30 (1 TiB) y considere la posibilidad de cambiar el tamaño</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
@@ -4055,7 +4051,7 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>considere la posibilidad de utilizar SSD estándar en lugar de Premium o Ultra siempre que sea posible</t>
+          <t>Considere la posibilidad de utilizar un SSD estándar en lugar de Premium o Ultra siempre que sea posible</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4139,7 +4135,7 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>para ASR, considere la posibilidad de usar discos SSD estándar si el RPO/RTO y el rendimiento de replicación lo permiten</t>
+          <t>Para ASR, considere la posibilidad de usar discos SSD estándar si el RPO/RTO y el rendimiento de replicación lo permiten</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4218,12 +4214,12 @@
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>almacenamiento</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Discos: validan el uso de discos SSD Premium en todas partes: por ejemplo, los que no son de producción podrían cambiar a SSD estándar o SSD premium bajo demanda  </t>
+          <t xml:space="preserve">Discos: valide el uso de discos SSD Premium en todas partes: por ejemplo, los que no son de producción podrían cambiar a SSD estándar o SSD Premium bajo demanda  </t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4265,7 +4261,7 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Cree presupuestos para administrar los costos y cree alertas que notifiquen automáticamente a las partes interesadas sobre anomalías de gasto y riesgos de gasto excesivo.</t>
+          <t>Cree presupuestos para administrar los costos y cree alertas que notifiquen automáticamente a las partes interesadas sobre anomalías en el gasto y riesgos de gasto excesivo.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4521,7 +4517,7 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Uso de máquinas virtuales de SPOT para trabajos interrumpibles: se trata de máquinas virtuales por las que se puede pujar y comprar a un precio reducido, lo que proporciona una solución rentable para cargas de trabajo no críticas.</t>
+          <t>Uso de máquinas virtuales de acceso puntual para trabajos interrumpibles: se trata de máquinas virtuales por las que se puede pujar y comprar a un precio reducido, lo que proporciona una solución rentable para cargas de trabajo no críticas.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4567,7 +4563,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>ajustar el tamaño de todas las máquinas virtuales</t>
+          <t>Ajustar el tamaño de todas las máquinas virtuales</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -4609,7 +4605,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>intercambiar el tamaño de la máquina virtual con los tamaños normalizados y más recientes</t>
+          <t>Intercambiar el tamaño de la máquina virtual con los tamaños normalizados y más recientes</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -4701,7 +4697,7 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>La creación de contenedores en una aplicación puede mejorar la densidad de la máquina virtual y ahorrar dinero en su escalado</t>
+          <t>La inclusión de una aplicación en contenedores puede mejorar la densidad de la máquina virtual y ahorrar dinero en su escalado</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>

--- a/spreadsheet/macrofree/cost_checklist.es.xlsx
+++ b/spreadsheet/macrofree/cost_checklist.es.xlsx
@@ -1073,7 +1073,11 @@
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
-      <c r="E8" s="21" t="n"/>
+      <c r="E8" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -1115,11 +1119,15 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Comprobar las instancias de copia de seguridad con la fuente de datos subyacente no encontrada</t>
+          <t>Comprobación de instancias de copia de seguridad con la fuente de datos subyacente no encontrada</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
-      <c r="E9" s="21" t="n"/>
+      <c r="E9" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -1161,7 +1169,11 @@
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
-      <c r="E10" s="21" t="n"/>
+      <c r="E10" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -1203,7 +1215,11 @@
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
-      <c r="E11" s="21" t="n"/>
+      <c r="E11" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -1241,11 +1257,15 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Eliminar o archivar recursos no utilizados (copias de seguridad antiguas, registros, cuentas de almacenamiento, etc.)</t>
+          <t>Elimine o archive los recursos no utilizados (copias de seguridad antiguas, registros, cuentas de almacenamiento, etc.)</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
-      <c r="E12" s="21" t="n"/>
+      <c r="E12" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -1283,11 +1303,15 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Considere un buen equilibrio entre el almacenamiento de recuperación del sitio y la copia de seguridad para aplicaciones que no son críticas</t>
+          <t>Considere un buen equilibrio entre el almacenamiento de Site Recovery y la copia de seguridad para aplicaciones que no son críticas</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
-      <c r="E13" s="21" t="n"/>
+      <c r="E13" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -1325,11 +1349,15 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Compruebe las oportunidades de gasto y ahorro entre las 40 áreas de trabajo de Log Analytics diferentes: use diferentes retenciones y recopilación de datos para áreas de trabajo que no sean de producción: cree un límite diario para el reconocimiento y el tamaño de los niveles: si establece un límite diario, además de crear una alerta cuando se alcance el límite, asegúrese de crear también una regla de alerta para que se le notifique cuando se alcance algún porcentaje (90 %, por ejemplo). - Considere la posibilidad de transformar el espacio de trabajo si es posible - https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-transformations#workspace-transformation-dcr </t>
+          <t xml:space="preserve">Compruebe las oportunidades de gasto y ahorro entre las 40 áreas de trabajo de análisis de registros diferentes: use diferentes retenciones y recopilación de datos para áreas de trabajo no productoras: cree un límite diario para el reconocimiento y el tamaño del nivel: si establece un límite diario, además de crear una alerta cuando se alcance el límite, asegúrese de crear también una regla de alerta para recibir una notificación cuando se alcance algún porcentaje (90 %, por ejemplo). - Considere la transformación del espacio de trabajo si es posible - https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-transformations#workspace-transformation-dcr </t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
-      <c r="E14" s="21" t="n"/>
+      <c r="E14" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -1375,7 +1403,11 @@
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
-      <c r="E15" s="21" t="n"/>
+      <c r="E15" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -1412,7 +1444,7 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>Ejecutar el libro de recursos huérfanos: eliminar o posponer elementos fantasma</t>
+          <t>Ejecutar libro de recursos huérfanos: eliminar o posponer elementos fantasma</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
@@ -1421,7 +1453,11 @@
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
-      <c r="E16" s="21" t="n"/>
+      <c r="E16" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -1463,11 +1499,15 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Cierre de instancias infrautilizadas</t>
+          <t>Apagado de instancias infrautilizadas</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
-      <c r="E17" s="21" t="n"/>
+      <c r="E17" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -1504,16 +1544,20 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>Máquinas virtuales detenidas o desasignadas: comprobar los discos</t>
+          <t>Máquinas virtuales detenidas o desasignadas: comprobar discos</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Compruebe que los discos son realmente necesarios, si no: eliminar. Si son necesarios, busque niveles de almacenamiento más bajos o use una copia de seguridad:</t>
+          <t>Comprueba que los discos son realmente necesarios, si no: borrar. Si son necesarios, busque niveles de almacenamiento más bajos o use una copia de seguridad:</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
-      <c r="E18" s="21" t="n"/>
+      <c r="E18" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -1555,11 +1599,15 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere la posibilidad de mover el almacenamiento no utilizado al nivel inferior, con reglas personalizadas: https://learn.microsoft.com/azure/storage/blobs/lifecycle-management-policy-configure  </t>
+          <t xml:space="preserve">Considere la posibilidad de mover el almacenamiento no utilizado al nivel inferior, con una regla personalizada: https://learn.microsoft.com/azure/storage/blobs/lifecycle-management-policy-configure  </t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
-      <c r="E19" s="21" t="n"/>
+      <c r="E19" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -1601,11 +1649,15 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Utilice etiquetas específicas para los elementos temporales con el formato "eliminar por fecha" y automatice la limpieza mensual</t>
+          <t>Utilice etiquetas específicas para elementos temporales con el formato "eliminar por fecha" y automatice la limpieza mensual</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
-      <c r="E20" s="21" t="n"/>
+      <c r="E20" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -1647,7 +1699,11 @@
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
-      <c r="E21" s="21" t="n"/>
+      <c r="E21" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -1689,7 +1745,11 @@
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
-      <c r="E22" s="21" t="n"/>
+      <c r="E22" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -1727,11 +1787,15 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>La optimización de las consultas de base de datos aumentará el rendimiento y permitirá un mejor dimensionamiento correcto del almacenamiento y las máquinas virtuales</t>
+          <t>la optimización de las consultas de base de datos aumentará el rendimiento y permitirá un mejor dimensionamiento correcto del almacenamiento y las máquinas virtuales</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
-      <c r="E23" s="21" t="n"/>
+      <c r="E23" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -1773,7 +1837,11 @@
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
-      <c r="E24" s="21" t="n"/>
+      <c r="E24" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -1815,7 +1883,11 @@
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
-      <c r="E25" s="21" t="n"/>
+      <c r="E25" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -1853,11 +1925,15 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de que el asesor está configurado para el tamaño correcto de la máquina virtual </t>
+          <t xml:space="preserve">Asegúrese de que Advisor esté configurado para el tamaño correcto de la máquina virtual </t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
-      <c r="E26" s="21" t="n"/>
+      <c r="E26" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -1899,7 +1975,11 @@
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
-      <c r="E27" s="21" t="n"/>
+      <c r="E27" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -1940,7 +2020,11 @@
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
-      <c r="E28" s="21" t="n"/>
+      <c r="E28" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -1977,11 +2061,15 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Automation: la automatización de tareas repetitivas puede ayudarle a ahorrar tiempo y recursos, reduciendo los costos en el proceso. </t>
+          <t xml:space="preserve">Use Azure Automation: Automatizar tareas repetitivas puede ayudarle a ahorrar tiempo y recursos, reduciendo los costos en el proceso. </t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
-      <c r="E29" s="21" t="n"/>
+      <c r="E29" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -2018,11 +2106,15 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Ejecución del libro de recursos huérfanos</t>
+          <t>Ejecución de un libro de recursos huérfanos</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
-      <c r="E30" s="21" t="n"/>
+      <c r="E30" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -2063,7 +2155,11 @@
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
-      <c r="E31" s="21" t="n"/>
+      <c r="E31" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -2104,7 +2200,11 @@
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
-      <c r="E32" s="21" t="n"/>
+      <c r="E32" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -2146,7 +2246,11 @@
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
-      <c r="E33" s="21" t="n"/>
+      <c r="E33" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -2188,7 +2292,11 @@
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
-      <c r="E34" s="21" t="n"/>
+      <c r="E34" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -2226,11 +2334,15 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>En el análisis de costos, use la granularidad diaria, agrupada por nombre de servicio para analizar el gasto de los últimos 3 meses e identificar los 3 que más gastan.</t>
+          <t>En el análisis de costos, utilice la granularidad diaria, agrupada por nombre de servicio para analizar el gasto de los últimos 3 meses e identificar los 3 que más gastan.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
-      <c r="E35" s="21" t="n"/>
+      <c r="E35" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -2272,7 +2384,11 @@
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
-      <c r="E36" s="21" t="n"/>
+      <c r="E36" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -2314,7 +2430,11 @@
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
-      <c r="E37" s="21" t="n"/>
+      <c r="E37" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -2356,7 +2476,11 @@
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
-      <c r="E38" s="21" t="n"/>
+      <c r="E38" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -2398,7 +2522,11 @@
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
-      <c r="E39" s="21" t="n"/>
+      <c r="E39" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -2440,7 +2568,11 @@
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
-      <c r="E40" s="21" t="n"/>
+      <c r="E40" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -2478,11 +2610,15 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de automatizar las reservas para realizar un seguimiento de los cambios y reaccionar rápidamente a ellos</t>
+          <t>Considere la automatización de reservas para realizar un seguimiento de los cambios y reaccionar rápidamente a ellos</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
-      <c r="E41" s="21" t="n"/>
+      <c r="E41" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -2525,10 +2661,14 @@
       </c>
       <c r="D42" s="21" t="inlineStr">
         <is>
-          <t>comprobando la búsqueda de las licencias de categoría de contador en el análisis de costes</t>
-        </is>
-      </c>
-      <c r="E42" s="21" t="n"/>
+          <t>verificando la búsqueda de Licencias de Categoría de Medidor en el análisis de costos</t>
+        </is>
+      </c>
+      <c r="E42" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -2570,7 +2710,11 @@
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
-      <c r="E43" s="21" t="n"/>
+      <c r="E43" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -2608,11 +2752,15 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Los planes de ahorro proporcionarán un 17 % en determinados planes de servicio de aplicaciones</t>
+          <t>Los planes de ahorro proporcionarán un 17% en planes de servicio de aplicaciones seleccionados</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
-      <c r="E44" s="21" t="n"/>
+      <c r="E44" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -2654,7 +2802,11 @@
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
-      <c r="E45" s="21" t="n"/>
+      <c r="E45" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -2696,11 +2848,15 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Uso de Azure Reserved Instances: esta característica le permite reservar máquinas virtuales durante un período de 1 o 3 años, lo que proporciona un importante ahorro de costos en comparación con los precios de pago por uso.</t>
+          <t>Utilizar Azure Reserved Instances: esta característica le permite reservar máquinas virtuales durante un período de 1 o 3 años, lo que proporciona un importante ahorro de costos en comparación con los precios de pago por uso.</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
-      <c r="E46" s="21" t="n"/>
+      <c r="E46" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -2738,11 +2894,15 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Planeación de planes de ahorro de Azure para todas las cargas de trabajo que son dinámicas y necesitan la máxima flexibilidad</t>
+          <t>Planeación de Azure Savings Plans para todas las cargas de trabajo que son dinámicas y necesitan la máxima flexibilidad</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
-      <c r="E47" s="21" t="n"/>
+      <c r="E47" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -2780,11 +2940,15 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Planeación de reservas de Azure para todas las cargas de trabajo que son menos dinámicas y que no cambiarán mucho</t>
+          <t>Planeación de Azure Reservations para todas las cargas de trabajo que son menos dinámicas y que no cambiarán mucho</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
-      <c r="E48" s="21" t="n"/>
+      <c r="E48" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -2816,7 +2980,7 @@
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>Almacenamiento de reserva</t>
+          <t>Almacenamiento de reservas</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
@@ -2825,7 +2989,11 @@
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
-      <c r="E49" s="21" t="n"/>
+      <c r="E49" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -2866,7 +3034,11 @@
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
-      <c r="E50" s="21" t="n"/>
+      <c r="E50" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -2908,7 +3080,11 @@
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
-      <c r="E51" s="21" t="n"/>
+      <c r="E51" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -2946,11 +3122,15 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>El descuento de la parte de la licencia VM + (ahub + 3YRI) es de alrededor del 70% de descuento</t>
+          <t>El descuento de la parte de VM + licencia (ahub + 3YRI) es de alrededor del 70% de descuento</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
-      <c r="E52" s="21" t="n"/>
+      <c r="E52" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -2988,11 +3168,15 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que los planes de Azure Reservations and Savings están cerca del 100 % de uso o realice los cambios necesarios para alcanzarlo.</t>
+          <t>Asegúrese de que los planes de Azure Reservations y Savings estén cerca del 100 % de uso o realice los cambios necesarios para alcanzarlo.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
-      <c r="E53" s="21" t="n"/>
+      <c r="E53" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -3029,11 +3213,15 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Asegúrate de que el uso de tus reservas sea cercano al 100%. Si no es así, aplique una directiva de SKU permitida o intercambie la reserva</t>
+          <t>Asegúrate de que el uso de tus reservas esté cerca del 100%. De lo contrario, aplique una política de SKU permitida o intercambie la reserva</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
-      <c r="E54" s="21" t="n"/>
+      <c r="E54" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F54" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -3071,11 +3259,15 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Planifique y aplique una política de activación/desactivación para los servicios de producción, siempre que sea posible</t>
+          <t>Planificar y aplicar una política de activación/desactivación para los servicios de producción, siempre que sea posible</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
-      <c r="E55" s="21" t="n"/>
+      <c r="E55" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -3116,7 +3308,11 @@
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
-      <c r="E56" s="21" t="n"/>
+      <c r="E56" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -3157,7 +3353,11 @@
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
-      <c r="E57" s="21" t="n"/>
+      <c r="E57" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -3198,7 +3398,11 @@
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
-      <c r="E58" s="21" t="n"/>
+      <c r="E58" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -3235,11 +3439,15 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Servicio PaaS del tamaño adecuado de acuerdo con el uso promedio y adaptarse a los picos con escalado automático o manual</t>
+          <t>Servicio PaaS de tamaño adecuado de acuerdo con el uso promedio y se adapta a los picos con escalado automático o manual</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
-      <c r="E59" s="21" t="n"/>
+      <c r="E59" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -3276,11 +3484,15 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Planifique la configuración de la demanda cuando corresponda</t>
+          <t>Planifique la conformación de la demanda cuando corresponda</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
-      <c r="E60" s="21" t="n"/>
+      <c r="E60" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -3317,11 +3529,15 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de implementar una lógica de reescalado de servicios dentro de la aplicación</t>
+          <t>Considere la posibilidad de implementar una lógica de reescalado del servicio dentro de la aplicación</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
-      <c r="E61" s="21" t="n"/>
+      <c r="E61" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -3363,7 +3579,11 @@
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
-      <c r="E62" s="21" t="n"/>
+      <c r="E62" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -3400,16 +3620,20 @@
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>Databricks</t>
+          <t>Ladrillos de datos</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar máquinas virtuales de acceso puntual con reserva siempre que sea posible. Considere la posibilidad de la terminación automática de clústeres.</t>
+          <t>Considere la posibilidad de usar máquinas virtuales de acceso puntual con reserva siempre que sea posible. Considere la terminación automática de clústeres.</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
-      <c r="E63" s="21" t="n"/>
+      <c r="E63" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -3451,7 +3675,11 @@
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
-      <c r="E64" s="21" t="n"/>
+      <c r="E64" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -3493,11 +3721,15 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Funciones: almacenar datos en caché localmente</t>
+          <t>Funciones - Almacenar datos en caché localmente</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
-      <c r="E65" s="21" t="n"/>
+      <c r="E65" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -3539,11 +3771,15 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Funciones - Arranques en frío: utilice la funcionalidad 'Ejecutar desde el paquete'. De esta manera, el código se descarga como un único archivo zip. Esto puede, por ejemplo, resultar en mejoras significativas con las funciones de Javascript, que tienen muchos módulos de nodos. Utilice herramientas específicas del lenguaje para reducir el tamaño del paquete, por ejemplo, aplicaciones Javascript que sacuden el árbol.</t>
+          <t>Funciones - Arranques en frío: utilice la funcionalidad 'Ejecutar desde el paquete'. De esta manera, el código se descarga como un solo archivo zip. Esto puede, por ejemplo, resultar en mejoras significativas con las funciones de Javascript, que tienen una gran cantidad de módulos de nodo. Utilice herramientas específicas del lenguaje para reducir el tamaño del paquete, por ejemplo, aplicaciones Javascript que sacuden el árbol.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
-      <c r="E66" s="21" t="n"/>
+      <c r="E66" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F66" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -3585,11 +3821,15 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Funciones - Mantén tus funciones calientes</t>
+          <t>Funciones - Mantenga sus funciones calientes</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
-      <c r="E67" s="21" t="n"/>
+      <c r="E67" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -3635,7 +3875,11 @@
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
-      <c r="E68" s="21" t="n"/>
+      <c r="E68" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -3673,11 +3917,15 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Las aplicaciones de funciones de un plan determinado se escalan juntas, por lo que cualquier problema con el escalado puede afectar a todas las aplicaciones del plan.</t>
+          <t>Las aplicaciones de funciones de un plan determinado se escalan todas juntas, por lo que cualquier problema con el escalado puede afectar a todas las aplicaciones del plan.</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
-      <c r="E69" s="21" t="n"/>
+      <c r="E69" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -3715,11 +3963,15 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>¿Se me factura por el "tiempo de espera"? Esta pregunta se suele formular en el contexto de una función de C# que realiza una operación asincrónica y espera el resultado, por ejemplo, await Task.Delay(1000) o await client. GetAsync('http://google.com'). La respuesta es sí: el segundo cálculo de GB se basa en la hora de inicio y finalización de la función y el uso de memoria durante ese período. Lo que realmente sucede durante ese tiempo en términos de actividad de la CPU no se tiene en cuenta en el cálculo. Una excepción a esta regla es si está utilizando funciones duraderas. No se le facturará por el tiempo empleado en las esperas en las funciones de orquestador.aplique técnicas de modelado de la demanda siempre que sea posible (¿entornos de desarrollo?) https://github.com/Azure-Samples/functions-csharp-premium-scaler</t>
+          <t>¿Se me factura por el "tiempo de espera"? Esta pregunta se suele hacer en el contexto de una función de C# que realiza una operación asincrónica y espera el resultado, por ejemplo, await Task.Delay(1000) o await client. GetAsync('http://google.com'). La respuesta es sí: el cálculo del segundo GB se basa en la hora de inicio y finalización de la función y el uso de memoria durante ese período. Lo que realmente sucede durante ese tiempo en términos de actividad de la CPU no se tiene en cuenta en el cálculo. Una excepción a esta regla es si está utilizando funciones duraderas. No se le factura por el tiempo empleado en las esperas en las funciones del orquestador.aplique técnicas de modelado de la demanda siempre que sea posible (¿entornos de desarrollo?) https://github.com/Azure-Samples/functions-csharp-premium-scaler</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
-      <c r="E70" s="21" t="n"/>
+      <c r="E70" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F70" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -3761,7 +4013,11 @@
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
-      <c r="E71" s="21" t="n"/>
+      <c r="E71" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F71" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -3799,11 +4055,15 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Frontdoor: desactivar la página principal predeterminadaEn la configuración de la aplicación de la aplicación, establezca AzureWebJobsDisableHomepage en true. Esto devolverá un 204 (sin contenido) al PoP para que solo se devuelvan los datos del encabezado.</t>
+          <t>Frontdoor: desactivar la página principal predeterminadaEn la configuración de la aplicación de la aplicación, establezca AzureWebJobsDisableHomepage en true. Esto devolverá un 204 (Sin contenido) al PoP, por lo que solo se devuelven los datos del encabezado.</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
-      <c r="E72" s="21" t="n"/>
+      <c r="E72" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F72" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -3841,11 +4101,15 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Frontdoor: ruta a algo que no devuelve nada. Configure una función, un proxy de función o agregue una ruta en la aplicación web que devuelva 200 (correctamente) y envíe contenido mínimo o nulo. La ventaja de esto es que podrá cerrar la sesión cuando se llame.</t>
+          <t>Frontdoor: ruta a algo que no devuelve nada. Configure una función, un proxy de función o agregue una ruta en la aplicación web que devuelva 200 (correctamente) y no envíe contenido o lo haga mínimo. La ventaja de esto es que podrá cerrar la sesión cuando se llame.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
-      <c r="E73" s="21" t="n"/>
+      <c r="E73" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F73" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -3887,7 +4151,11 @@
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
-      <c r="E74" s="21" t="n"/>
+      <c r="E74" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F74" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -3929,7 +4197,11 @@
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
-      <c r="E75" s="21" t="n"/>
+      <c r="E75" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F75" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -3971,7 +4243,11 @@
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
-      <c r="E76" s="21" t="n"/>
+      <c r="E76" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F76" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -4013,7 +4289,11 @@
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
-      <c r="E77" s="21" t="n"/>
+      <c r="E77" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F77" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -4051,11 +4331,15 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de utilizar un SSD estándar en lugar de Premium o Ultra siempre que sea posible</t>
+          <t>Considere la posibilidad de utilizar SSD estándar en lugar de Premium o Ultra siempre que sea posible</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
-      <c r="E78" s="21" t="n"/>
+      <c r="E78" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F78" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -4093,11 +4377,15 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>En el caso de las cuentas de almacenamiento, asegúrese de que el nivel elegido no suma cargos por transacción (puede ser más barato pasar al siguiente nivel)</t>
+          <t>En el caso de las cuentas de almacenamiento, asegúrese de que el nivel elegido no sume cargos por transacción (podría ser más barato pasar al siguiente nivel)</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
-      <c r="E79" s="21" t="n"/>
+      <c r="E79" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -4139,7 +4427,11 @@
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
-      <c r="E80" s="21" t="n"/>
+      <c r="E80" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F80" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -4177,11 +4469,15 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Cuentas de almacenamiento: compruebe el nivel de acceso frecuente o GRS necesario</t>
+          <t>Cuentas de almacenamiento: compruebe el nivel de acceso frecuente y/o GRS necesario</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
-      <c r="E81" s="21" t="n"/>
+      <c r="E81" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F81" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -4219,11 +4515,15 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Discos: valide el uso de discos SSD Premium en todas partes: por ejemplo, los que no son de producción podrían cambiar a SSD estándar o SSD Premium bajo demanda  </t>
+          <t xml:space="preserve">Discos: valida el uso de discos SSD Premium en todas partes: por ejemplo, los que no son prod podrían cambiar a SSD estándar o SSD Premium bajo demanda  </t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
-      <c r="E82" s="21" t="n"/>
+      <c r="E82" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F82" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -4261,11 +4561,15 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Cree presupuestos para administrar los costos y cree alertas que notifiquen automáticamente a las partes interesadas sobre anomalías en el gasto y riesgos de gasto excesivo.</t>
+          <t>Cree presupuestos para administrar los costos y cree alertas que notifiquen automáticamente a las partes interesadas sobre anomalías de gasto y riesgos de gasto excesivo.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
-      <c r="E83" s="21" t="n"/>
+      <c r="E83" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -4307,7 +4611,11 @@
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
-      <c r="E84" s="21" t="n"/>
+      <c r="E84" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F84" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -4349,7 +4657,11 @@
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
-      <c r="E85" s="21" t="n"/>
+      <c r="E85" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F85" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -4391,7 +4703,11 @@
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
-      <c r="E86" s="21" t="n"/>
+      <c r="E86" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F86" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -4433,7 +4749,11 @@
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
-      <c r="E87" s="21" t="n"/>
+      <c r="E87" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F87" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -4475,7 +4795,11 @@
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
-      <c r="E88" s="21" t="n"/>
+      <c r="E88" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -4517,11 +4841,15 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Uso de máquinas virtuales de acceso puntual para trabajos interrumpibles: se trata de máquinas virtuales por las que se puede pujar y comprar a un precio reducido, lo que proporciona una solución rentable para cargas de trabajo no críticas.</t>
+          <t>Uso de máquinas virtuales de acceso puntual para trabajos interrumpibles: se trata de máquinas virtuales por las que se puede pujar y comprar a un precio con descuento, lo que proporciona una solución rentable para cargas de trabajo no críticas.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
-      <c r="E89" s="21" t="n"/>
+      <c r="E89" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F89" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -4567,7 +4895,11 @@
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
-      <c r="E90" s="21" t="n"/>
+      <c r="E90" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F90" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -4605,11 +4937,15 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Intercambiar el tamaño de la máquina virtual con los tamaños normalizados y más recientes</t>
+          <t>Intercambio del tamaño de la máquina virtual con los tamaños normalizados y más recientes</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
-      <c r="E91" s="21" t="n"/>
+      <c r="E91" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F91" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -4651,11 +4987,15 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Ajustar el tamaño de las máquinas virtuales: comience con la supervisión del uso por debajo del 5 % y, a continuación, trabaje hasta el 40 %</t>
+          <t>Ajuste del tamaño de las máquinas virtuales: comience con la supervisión del uso por debajo del 5 % y, a continuación, trabaje hasta el 40 %</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
-      <c r="E92" s="21" t="n"/>
+      <c r="E92" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F92" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -4697,11 +5037,15 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>La inclusión de una aplicación en contenedores puede mejorar la densidad de la máquina virtual y ahorrar dinero en su escalado</t>
+          <t>La creación de una aplicación en contenedores puede mejorar la densidad de la máquina virtual y ahorrar dinero en su escalado</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
-      <c r="E93" s="21" t="n"/>
+      <c r="E93" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
       <c r="F93" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -8165,7 +8509,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ajuste de bases de datos/aplicaciones</t>
+          <t>Ajuste de DB/App</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -8219,7 +8563,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Recomendación entendida, pero no necesaria por los requisitos actuales</t>
+          <t>Recomendación comprendida, pero no necesaria por los requisitos actuales</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
